--- a/2-一期需求-计划/1-需求说明.xlsx
+++ b/2-一期需求-计划/1-需求说明.xlsx
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习(12课)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生账户信息设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,10 @@
   </si>
   <si>
     <t>音视频文件暂时和网站源码放在同一个服务器，但是要考虑到以后移到云存储上的调用接口(把这些会占用较大带宽的文件放到云存储上可以节省很大的服务器费用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习(15课)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,8 +341,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -644,7 +672,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,10 +706,10 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -700,13 +728,13 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -726,10 +754,10 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -749,10 +777,10 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -804,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -853,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -947,13 +975,13 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1002,10 +1030,10 @@
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1026,7 +1054,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1052,7 +1080,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1078,7 +1106,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1104,7 +1132,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1130,7 +1158,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1179,10 +1207,10 @@
       <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1247,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1273,7 +1301,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1297,7 +1325,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1320,7 +1348,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1365,7 +1393,7 @@
       <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1428,13 +1456,13 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1478,7 +1506,7 @@
       <c r="A35" s="10"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1523,7 +1551,7 @@
       <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1568,7 +1596,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1615,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1665,7 +1693,7 @@
       <c r="A43" s="10"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>

--- a/2-一期需求-计划/1-需求说明.xlsx
+++ b/2-一期需求-计划/1-需求说明.xlsx
@@ -14,29 +14,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1、创建帐号；2、管理帐号权限；3、查看帐号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名(由总部或者各加盟学校管理员分配，不提供注册功能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术支持联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据课程资料制作，内容大概是：1、一张大图场景，包含2-3个句子；2、3-4个单词配图；3、一个视频播放功能，用来播放场景视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打地鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一首简单的与课程内容相关的英文歌曲，功能：1、播放歌曲；2、歌词随着歌曲进度反转颜色；3、要有播放、暂停与重播按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计主要技术：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画风要求：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量卡通化，适合与3-12岁小朋友</t>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Html5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4个小游戏在课程中交替使用，是游戏不显得很枯燥)</t>
+  </si>
+  <si>
+    <t>学习：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助游戏：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snack songs：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(游戏的形式：播放单词或者句子，然后在3-4个气球、地鼠、飞机上显示相近的东西，但是只有一个是完全正确的，用户用鼠标点击选择即可。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(管理员可见)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(简单提供一些网站使用说明)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（先留白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL，数据：用户帐号密码，用户信息，用户权限，课程音视频资料链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音视频文件暂时和网站源码放在同一个服务器，但是要考虑到以后移到云存储上的调用接口(把这些会占用较大带宽的文件放到云存储上可以节省很大的服务器费用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习(15课)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师账户信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整账号权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帮助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
+    <t>（设置用户的姓名、电话、邮箱、头像等基本信息，不同身份的用户显示的设置项会有不同）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -44,27 +182,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老师账户信息设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员信息设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（设置用户的姓名、电话、邮箱、头像等基本信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1、创建帐号；2、管理帐号权限；3、查看帐号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理帐号</t>
+    <t>总部和各级管理员拥有创建账号的权限，账号直接给用户使用，不支持自主注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,113 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名(由总部或者各加盟学校管理员分配，不提供注册功能)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术支持联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据课程资料制作，内容大概是：1、一张大图场景，包含2-3个句子；2、3-4个单词配图；3、一个视频播放功能，用来播放场景视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打地鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一首简单的与课程内容相关的英文歌曲，功能：1、播放歌曲；2、歌词随着歌曲进度反转颜色；3、要有播放、暂停与重播按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计主要技术：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画风要求：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽量卡通化，适合与3-12岁小朋友</t>
-  </si>
-  <si>
-    <t>备注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Html5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4个小游戏在课程中交替使用，是游戏不显得很枯燥)</t>
-  </si>
-  <si>
-    <t>学习：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助游戏：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snack songs：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(游戏的形式：播放单词或者句子，然后在3-4个气球、地鼠、飞机上显示相近的东西，但是只有一个是完全正确的，用户用鼠标点击选择即可。)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐号管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(管理员可见)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(简单提供一些网站使用说明)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（先留白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL，数据：用户帐号密码，用户信息，用户权限，课程音视频资料链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音视频文件暂时和网站源码放在同一个服务器，但是要考虑到以后移到云存储上的调用接口(把这些会占用较大带宽的文件放到云存储上可以节省很大的服务器费用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习(15课)</t>
+    <t>遍历、搜索账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,10 +718,10 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -728,13 +740,13 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -754,10 +766,10 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -777,10 +789,10 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -829,10 +841,10 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -878,10 +890,10 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -907,7 +919,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -975,13 +987,13 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1030,10 +1042,10 @@
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1054,7 +1066,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1080,7 +1092,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1106,7 +1118,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1132,7 +1144,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1158,7 +1170,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1207,10 +1219,10 @@
       <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1272,10 +1284,10 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1301,7 +1313,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1348,7 +1360,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1393,7 +1405,7 @@
       <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1456,13 +1468,13 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1506,9 +1518,11 @@
       <c r="A35" s="10"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1551,9 +1565,11 @@
       <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1596,9 +1612,11 @@
       <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1640,10 +1658,10 @@
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1693,7 +1711,7 @@
       <c r="A43" s="10"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
